--- a/Corte de Apelaciones de Arica/1-2013601#1252#1-F-ingresos_causas_por_materia-2021-11.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013601#1252#1-F-ingresos_causas_por_materia-2021-11.xlsx
@@ -630,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
